--- a/正则内容-示例.xlsx
+++ b/正则内容-示例.xlsx
@@ -16,9 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>文本列</t>
+  </si>
+  <si>
+    <t>美丽酷</t>
+  </si>
+  <si>
+    <t>美丽，宽敞</t>
   </si>
 </sst>
 </file>
@@ -989,7 +995,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1003,13 +1009,13 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2">
-        <v>2077</v>
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3">
-        <v>15521162077</v>
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
